--- a/biology/Botanique/Pezizaceae/Pezizaceae.xlsx
+++ b/biology/Botanique/Pezizaceae/Pezizaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pezizaceae sont une famille de champignons ascomycètes. Elle comprend une trentaine de genres, dont les pézizes et environ 230 espèces.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forme du sporophore
-Ces champignons produisent des sporophores qui tendent à se développer sous la forme d'une "coupe". Les spores se forment sur la surface intérieure du sporophore. La forme de coupe sert généralement à concentrer les spores dans les gouttes de pluie qui éclaboussent et projettent les spores hors du bol. En outre, la courbure permet à de petits courants (de vent) de souffler les spores d'une manière différente de celles des agarics et des bolets.
+          <t>Forme du sporophore</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces champignons produisent des sporophores qui tendent à se développer sous la forme d'une "coupe". Les spores se forment sur la surface intérieure du sporophore. La forme de coupe sert généralement à concentrer les spores dans les gouttes de pluie qui éclaboussent et projettent les spores hors du bol. En outre, la courbure permet à de petits courants (de vent) de souffler les spores d'une manière différente de celles des agarics et des bolets.
 Les coupes de ces champignons vont grandir en formes particulières, souvent ressemblant à des tasses, des bols ou des soucoupes. Par exemple, Aleuria aurantia va ressembler à des croûtes d'orange jetées. Elles peuvent être vivement colorées, comme une tasse écarlate Sarcoscypha coccinea, qui est souvent où elle pousse sont l'un des premiers signes du printemps.
 Les asques sont amyloïdes, (elles virent au bleu à la teinture d'iode).
 </t>
@@ -545,10 +562,48 @@
           <t>Classification Phylogénétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique des pezizaceae, connue depuis 2001, fait apparaître sept clades [1]
-Phylogramme des Pezizaceae
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique des pezizaceae, connue depuis 2001, fait apparaître sept clades 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pezizaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pezizaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification Phylogénétique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogramme des Pezizaceae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pezizales
 Neolecta
 Verpa
@@ -638,33 +693,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Pezizaceae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pezizaceae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Classification Linnéenne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après la 10e édition du Dictionary of the Fungi (2007)[2], cette famille est constituée des genres suivants :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la 10e édition du Dictionary of the Fungi (2007), cette famille est constituée des genres suivants :
 Adelphella
 Amylascus
 Boudiera
